--- a/Enterprise Architect/4-5-6. Value stream + Data + Architecture.xlsx
+++ b/Enterprise Architect/4-5-6. Value stream + Data + Architecture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexander/Development/otus/Enterprise Architect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12099FEE-85F9-0841-89F8-E19710B48DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C04668C-0DF9-B844-9909-7D3BCA334098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="46080" windowHeight="23900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -555,26 +555,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Управление тарифвами</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:
-- Модуль управления тарифами в рамках панели администрирования.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Управление ремонтом транспорта</t>
     </r>
     <r>
@@ -748,6 +728,26 @@
       </rPr>
       <t>:
 - Модуль контроля за транспортными средствами в рамках панели админстрирования</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Управление тарифами</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:
+- Модуль управления тарифами в рамках панели администрирования.</t>
     </r>
   </si>
 </sst>
@@ -903,11 +903,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1191,24 +1191,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="144" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="144" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1472,32 +1472,32 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>61</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
